--- a/biology/Botanique/Bosquet_des_Rocailles/Bosquet_des_Rocailles.xlsx
+++ b/biology/Botanique/Bosquet_des_Rocailles/Bosquet_des_Rocailles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le bosquet des Rocailles ou salle du Bal est un bosquet des jardins de Versailles.
@@ -512,7 +524,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bosquet des Rocailles se situe dans la partie sud-est des jardins. Il est voisin des endroits suivants :
 au nord, la rampe du Midi, qui le sépare du parterre de Latone
@@ -549,7 +563,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bosquet comporte en son sein la « salle du Bal », une zone elliptique dégagée. Sur environ le tiers de son pourtour, cette salle accueille une cascade en gradins en meulière et coquillages d'Afrique.
 </t>
@@ -580,7 +596,9 @@
           <t>Décoration</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La salle du Bal est décorée par plusieurs vases et torchères en plomb doré.
 </t>
@@ -611,7 +629,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Aménagé par André Le Nôtre entre 1680 et 1683, le bosquet est le dernier composé avant l'installation de Louis XIV à Versailles. Il est inauguré en 1685. La zone centrale comporte à l'origine une piste de danse ovale, délimitée par un petit canal. Cette piste est détruite au début du XVIIIe siècle.
 </t>
@@ -642,7 +662,9 @@
           <t>Fiction</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La création du bosquet est le sujet du film Les Jardins du roi (2014) d'Alan Rickman.
 </t>
